--- a/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
+++ b/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="105">
   <si>
     <t>Wahlkreis</t>
   </si>
@@ -38,24 +38,36 @@
     <t>Les Vert.e.s (Chablais et Alpes vaudoises)</t>
   </si>
   <si>
+    <t>Grüne</t>
+  </si>
+  <si>
     <t>Verts</t>
   </si>
   <si>
     <t>PLR. Les Libéraux-Radicaux</t>
   </si>
   <si>
+    <t>FDP</t>
+  </si>
+  <si>
     <t>PLR</t>
   </si>
   <si>
     <t>Parti socialiste (PS)</t>
   </si>
   <si>
+    <t>SP</t>
+  </si>
+  <si>
     <t>PS</t>
   </si>
   <si>
     <t>UDC Union démocratique du Centre</t>
   </si>
   <si>
+    <t>SVP</t>
+  </si>
+  <si>
     <t>UDC</t>
   </si>
   <si>
@@ -65,6 +77,9 @@
     <t>Diverse</t>
   </si>
   <si>
+    <t>Divers</t>
+  </si>
+  <si>
     <t>Alliance centriste du Chablais - AC/DC</t>
   </si>
   <si>
@@ -74,6 +89,9 @@
     <t>Parti Evangélique Vaudois</t>
   </si>
   <si>
+    <t>EVP</t>
+  </si>
+  <si>
     <t>PEV</t>
   </si>
   <si>
@@ -83,12 +101,18 @@
     <t>Le Centre</t>
   </si>
   <si>
+    <t>Mitte</t>
+  </si>
+  <si>
     <t>Centre</t>
   </si>
   <si>
     <t>Vert'libéraux</t>
   </si>
   <si>
+    <t>GLP</t>
+  </si>
+  <si>
     <t>Alliance des Libertés</t>
   </si>
   <si>
@@ -282,9 +306,6 @@
   </si>
   <si>
     <t>Vert'libéraux et Le Centre</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>décroissance alternatives (Ensemble à Gauche)</t>
@@ -668,8 +689,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -680,11 +704,14 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -695,11 +722,14 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -710,11 +740,14 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -725,11 +758,14 @@
         <v>5.0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -740,1421 +776,1706 @@
         <v>6.0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3"/>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
         <v>1.0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4">
         <v>2.0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4">
         <v>3.0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4">
         <v>4.0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F11" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4">
         <v>5.0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4">
         <v>6.0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4">
         <v>7.0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4">
         <v>8.0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4">
         <v>1.0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3"/>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4">
         <v>2.0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3"/>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F17" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4">
         <v>3.0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3"/>
+      <c r="E18" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4">
         <v>4.0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3"/>
+      <c r="E19" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4">
         <v>5.0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3"/>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F20" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4">
         <v>6.0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3"/>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4">
         <v>7.0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D22" s="3"/>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4">
         <v>1.0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3"/>
+      <c r="E23" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F23" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4">
         <v>2.0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D24" s="3"/>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B25" s="4">
         <v>3.0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3"/>
+      <c r="E25" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F25" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B26" s="4">
         <v>4.0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3"/>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B27" s="4">
         <v>5.0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3"/>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F27" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4">
         <v>1.0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3"/>
+      <c r="E28" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B29" s="4">
         <v>2.0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3"/>
+      <c r="E29" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F29" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B30" s="4">
         <v>3.0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="3"/>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B31" s="4">
         <v>4.0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3"/>
+      <c r="E31" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B32" s="4">
         <v>5.0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D32" s="3"/>
+      <c r="E32" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F32" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B33" s="4">
         <v>6.0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3"/>
+      <c r="E33" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F33" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B34" s="4">
         <v>7.0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D34" s="3"/>
+      <c r="E34" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F34" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B35" s="4">
         <v>8.0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D35" s="3"/>
+      <c r="E35" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F35" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B36" s="4">
         <v>9.0</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D36" s="3"/>
+      <c r="E36" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F36" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B37" s="4">
         <v>1.0</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D37" s="3"/>
+      <c r="E37" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F37" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B38" s="4">
         <v>2.0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D38" s="3"/>
+      <c r="E38" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F38" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B39" s="4">
         <v>3.0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D39" s="3"/>
+      <c r="E39" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F39" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B40" s="4">
         <v>4.0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D40" s="3"/>
+      <c r="E40" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F40" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B41" s="4">
         <v>5.0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D41" s="3"/>
+      <c r="E41" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F41" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B42" s="4">
         <v>6.0</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D42" s="3"/>
+      <c r="E42" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F42" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B43" s="4">
         <v>7.0</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D43" s="3"/>
+      <c r="E43" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F43" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B44" s="4">
         <v>8.0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D44" s="3"/>
+      <c r="E44" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F44" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B45" s="4">
         <v>9.0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3"/>
+      <c r="E45" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F45" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B46" s="4">
         <v>10.0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D46" s="3"/>
+      <c r="E46" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F46" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B47" s="4">
         <v>1.0</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D47" s="3"/>
+      <c r="E47" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F47" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B48" s="4">
         <v>2.0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D48" s="3"/>
+      <c r="E48" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F48" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B49" s="4">
         <v>3.0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D49" s="3"/>
+      <c r="E49" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F49" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B50" s="4">
         <v>4.0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D50" s="3"/>
+      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F50" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B51" s="4">
         <v>5.0</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D51" s="3"/>
+      <c r="E51" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B52" s="4">
         <v>6.0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3"/>
+      <c r="E52" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F52" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B53" s="4">
         <v>7.0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D53" s="3"/>
+      <c r="E53" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F53" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B54" s="4">
         <v>8.0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D54" s="3"/>
+      <c r="E54" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F54" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B55" s="4">
         <v>9.0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D55" s="3"/>
+      <c r="E55" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B56" s="4">
         <v>1.0</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D56" s="3"/>
+      <c r="E56" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F56" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B57" s="4">
         <v>2.0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D57" s="3"/>
+      <c r="E57" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F57" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B58" s="4">
         <v>3.0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D58" s="3"/>
+      <c r="E58" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F58" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B59" s="4">
         <v>4.0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D59" s="3"/>
+      <c r="E59" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F59" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4">
         <v>5.0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D60" s="3"/>
+      <c r="E60" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F60" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B61" s="4">
         <v>6.0</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D61" s="3"/>
+      <c r="E61" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F61" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B62" s="4">
         <v>7.0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D62" s="3"/>
+      <c r="E62" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F62" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B63" s="4">
         <v>8.0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D63" s="3"/>
+      <c r="E63" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F63" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B64" s="4">
         <v>1.0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D64" s="3"/>
+      <c r="E64" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F64" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B65" s="4">
         <v>2.0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D65" s="3"/>
+      <c r="E65" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F65" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B66" s="4">
         <v>3.0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D66" s="3"/>
+      <c r="E66" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F66" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B67" s="4">
         <v>4.0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D67" s="3"/>
+      <c r="E67" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F67" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4">
         <v>5.0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D68" s="3"/>
+      <c r="E68" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F68" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B69" s="4">
         <v>6.0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D69" s="3"/>
+      <c r="E69" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F69" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B70" s="4">
         <v>7.0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D70" s="3"/>
+      <c r="E70" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F70" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B71" s="4">
         <v>1.0</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D71" s="3"/>
+      <c r="E71" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F71" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B72" s="4">
         <v>2.0</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D72" s="3"/>
+      <c r="E72" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F72" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B73" s="4">
         <v>3.0</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D73" s="3"/>
+      <c r="E73" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F73" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B74" s="4">
         <v>4.0</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D74" s="3"/>
+      <c r="E74" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F74" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B75" s="4">
         <v>5.0</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D75" s="3"/>
+      <c r="E75" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F75" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4">
         <v>6.0</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D76" s="3"/>
+      <c r="E76" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F76" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B77" s="4">
         <v>7.0</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D77" s="3"/>
+      <c r="E77" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F77" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B78" s="4">
         <v>8.0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D78" s="3"/>
+      <c r="E78" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F78" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B79" s="4">
         <v>9.0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D79" s="3"/>
+      <c r="E79" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F79" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B80" s="4">
         <v>1.0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D80" s="3"/>
+      <c r="E80" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F80" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B81" s="4">
         <v>2.0</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D81" s="3"/>
+      <c r="E81" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F81" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B82" s="4">
         <v>3.0</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D82" s="3"/>
+      <c r="E82" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F82" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4">
         <v>4.0</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D83" s="3"/>
+      <c r="E83" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F83" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4">
         <v>5.0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D84" s="3"/>
+      <c r="E84" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F84" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4">
         <v>6.0</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D85" s="3"/>
+      <c r="E85" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F85" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4">
         <v>7.0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D86" s="3"/>
+      <c r="E86" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F86" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4">
         <v>8.0</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D87" s="3"/>
+      <c r="E87" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F87" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B88" s="4">
         <v>9.0</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D88" s="3"/>
+      <c r="E88" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F88" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B89" s="4">
         <v>1.0</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D89" s="3"/>
+      <c r="E89" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F89" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B90" s="4">
         <v>2.0</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D90" s="3"/>
+      <c r="E90" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F90" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4">
         <v>3.0</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D91" s="3"/>
+      <c r="E91" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F91" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4">
         <v>4.0</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D92" s="3"/>
+      <c r="E92" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F92" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B93" s="4">
         <v>1.0</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D93" s="3"/>
+      <c r="E93" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F93" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4">
         <v>2.0</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D94" s="3"/>
+      <c r="E94" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F94" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4">
         <v>3.0</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D95" s="3"/>
+      <c r="E95" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F95" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B96" s="4">
         <v>4.0</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D96" s="3"/>
+      <c r="E96" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F96" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4">
         <v>5.0</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D97" s="3"/>
+      <c r="E97" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F97" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B98" s="4">
         <v>6.0</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D98" s="3"/>
+      <c r="E98" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F98" s="5" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B99" s="4">
         <v>7.0</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D99" s="3"/>
+      <c r="E99" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F99" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B100" s="4">
         <v>8.0</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D100" s="3"/>
+      <c r="E100" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F100" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B101" s="4">
         <v>9.0</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D101" s="3"/>
+      <c r="E101" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F101" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
@@ -2528,31 +2849,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -2572,7 +2893,7 @@
         <v>1.0</v>
       </c>
       <c r="F2" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" s="7">
         <v>0.0</v>
@@ -2581,7 +2902,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="7">
         <v>9.0</v>
@@ -2589,7 +2910,7 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7">
         <v>2.0</v>
@@ -2621,7 +2942,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7">
         <v>2.0</v>
@@ -2653,7 +2974,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B5" s="7">
         <v>3.0</v>
@@ -2685,7 +3006,7 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B6" s="8">
         <v>0.0</v>
@@ -2717,7 +3038,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B7" s="8">
         <v>3.0</v>
@@ -2749,7 +3070,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B8" s="7">
         <v>3.0</v>
@@ -2781,7 +3102,7 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B9" s="8">
         <v>2.0</v>
@@ -2813,7 +3134,7 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B10" s="8">
         <v>1.0</v>
@@ -2845,7 +3166,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7">
         <v>2.0</v>
@@ -2877,7 +3198,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B12" s="7">
         <v>3.0</v>
@@ -2909,7 +3230,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B13" s="7">
         <v>4.0</v>
@@ -2924,7 +3245,7 @@
         <v>2.0</v>
       </c>
       <c r="F13" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" s="7">
         <v>2.0</v>
@@ -2933,7 +3254,7 @@
         <v>0.0</v>
       </c>
       <c r="I13" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" s="7">
         <v>19.0</v>
@@ -2941,7 +3262,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B14" s="7">
         <v>2.0</v>
@@ -2973,7 +3294,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B15" s="7">
         <v>2.0</v>
@@ -2988,7 +3309,7 @@
         <v>4.0</v>
       </c>
       <c r="F15" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" s="7">
         <v>1.0</v>
@@ -2997,7 +3318,7 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" s="7">
         <v>16.0</v>
@@ -3005,7 +3326,7 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B16" s="8">
         <v>1.0</v>
@@ -3037,7 +3358,7 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B17" s="8">
         <v>1.0</v>
@@ -3052,7 +3373,7 @@
         <v>2.0</v>
       </c>
       <c r="F17" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" s="8">
         <v>1.0</v>
@@ -3061,7 +3382,7 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" s="8">
         <v>14.0</v>

--- a/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
+++ b/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="105">
   <si>
     <t>Wahlkreis</t>
   </si>
@@ -326,7 +326,7 @@
     <t>Lausanne</t>
   </si>
   <si>
-    <t>Riviera-Pays-d'Enhaut</t>
+    <t>Riviera-Pays d'Enhaut</t>
   </si>
 </sst>
 </file>
@@ -2870,9 +2870,12 @@
         <v>52</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2902,9 +2905,12 @@
         <v>0.0</v>
       </c>
       <c r="I2" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K2" s="7">
         <v>9.0</v>
       </c>
     </row>
@@ -2937,6 +2943,9 @@
         <v>0.0</v>
       </c>
       <c r="J3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="7">
         <v>8.0</v>
       </c>
     </row>
@@ -2969,6 +2978,9 @@
         <v>0.0</v>
       </c>
       <c r="J4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="7">
         <v>8.0</v>
       </c>
     </row>
@@ -3001,6 +3013,9 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="7">
         <v>17.0</v>
       </c>
     </row>
@@ -3033,6 +3048,9 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="8">
         <v>2.0</v>
       </c>
     </row>
@@ -3065,6 +3083,9 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="8">
         <v>15.0</v>
       </c>
     </row>
@@ -3097,6 +3118,9 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="7">
         <v>31.0</v>
       </c>
     </row>
@@ -3129,6 +3153,9 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="8">
         <v>26.0</v>
       </c>
     </row>
@@ -3161,6 +3188,9 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="8">
         <v>5.0</v>
       </c>
     </row>
@@ -3193,6 +3223,9 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="7">
         <v>12.0</v>
       </c>
     </row>
@@ -3225,6 +3258,9 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="7">
         <v>16.0</v>
       </c>
     </row>
@@ -3254,9 +3290,12 @@
         <v>0.0</v>
       </c>
       <c r="I13" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K13" s="7">
         <v>19.0</v>
       </c>
     </row>
@@ -3289,6 +3328,9 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="7">
         <v>14.0</v>
       </c>
     </row>
@@ -3318,9 +3360,12 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="K15" s="7">
         <v>16.0</v>
       </c>
     </row>
@@ -3353,6 +3398,9 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="8">
         <v>2.0</v>
       </c>
     </row>
@@ -3382,9 +3430,12 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="K17" s="8">
         <v>14.0</v>
       </c>
     </row>

--- a/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
+++ b/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="105">
   <si>
     <t>Wahlkreis</t>
   </si>
@@ -74,103 +74,103 @@
     <t>POP - Parti Ouvrier et Populaire</t>
   </si>
   <si>
+    <t>Ensemble à gauche et POP</t>
+  </si>
+  <si>
+    <t>Alliance centriste du Chablais - AC/DC</t>
+  </si>
+  <si>
     <t>Diverse</t>
   </si>
   <si>
     <t>Divers</t>
   </si>
   <si>
-    <t>Alliance centriste du Chablais - AC/DC</t>
-  </si>
-  <si>
     <t>Broye-Vully</t>
   </si>
   <si>
     <t>Parti Evangélique Vaudois</t>
   </si>
   <si>
+    <t>PLR Les Libéraux-Radicaux Broye-Vully</t>
+  </si>
+  <si>
+    <t>Le Centre</t>
+  </si>
+  <si>
+    <t>Mitte</t>
+  </si>
+  <si>
+    <t>Centre</t>
+  </si>
+  <si>
+    <t>Vert'libéraux</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>Alliance des Libertés</t>
+  </si>
+  <si>
+    <t>Parti Socialiste</t>
+  </si>
+  <si>
+    <t>Les Vert.e.s Broye-Vully</t>
+  </si>
+  <si>
+    <t>Union démocratique du centre</t>
+  </si>
+  <si>
+    <t>Gros-de-Vaud</t>
+  </si>
+  <si>
+    <t>Les Vert.e.s du Gros-de-Vaud</t>
+  </si>
+  <si>
+    <t>Le Centre - PEV</t>
+  </si>
+  <si>
+    <t>UDC Gros-de-Vaud</t>
+  </si>
+  <si>
+    <t>Parti socialiste du Gros de Vaud</t>
+  </si>
+  <si>
+    <t>La Vallée</t>
+  </si>
+  <si>
+    <t>PARTI EVANGELIQUE VAUD</t>
+  </si>
+  <si>
+    <t>PARTI SOCIALISTE VALLEE DE JOUX</t>
+  </si>
+  <si>
+    <t>UNION DEMOCRATIQUE DU CENTRE</t>
+  </si>
+  <si>
+    <t>LES VERT-E-S</t>
+  </si>
+  <si>
+    <t>PLR.Les Libéraux-Radicaux Vallée de Joux</t>
+  </si>
+  <si>
+    <t>Yverdon</t>
+  </si>
+  <si>
+    <t>vert'libéraux</t>
+  </si>
+  <si>
+    <t>PEV-UDF – Valeurs chrétiennes</t>
+  </si>
+  <si>
     <t>EVP</t>
   </si>
   <si>
     <t>PEV</t>
   </si>
   <si>
-    <t>PLR Les Libéraux-Radicaux Broye-Vully</t>
-  </si>
-  <si>
-    <t>Le Centre</t>
-  </si>
-  <si>
-    <t>Mitte</t>
-  </si>
-  <si>
-    <t>Centre</t>
-  </si>
-  <si>
-    <t>Vert'libéraux</t>
-  </si>
-  <si>
-    <t>GLP</t>
-  </si>
-  <si>
-    <t>Alliance des Libertés</t>
-  </si>
-  <si>
-    <t>Parti Socialiste</t>
-  </si>
-  <si>
-    <t>Les Vert.e.s Broye-Vully</t>
-  </si>
-  <si>
-    <t>Union démocratique du centre</t>
-  </si>
-  <si>
-    <t>Gros-de-Vaud</t>
-  </si>
-  <si>
-    <t>Les Vert.e.s du Gros-de-Vaud</t>
-  </si>
-  <si>
-    <t>Le Centre - PEV</t>
-  </si>
-  <si>
-    <t>UDC Gros-de-Vaud</t>
-  </si>
-  <si>
-    <t>Parti socialiste du Gros de Vaud</t>
-  </si>
-  <si>
-    <t>La Vallée</t>
-  </si>
-  <si>
-    <t>PARTI EVANGELIQUE VAUD</t>
-  </si>
-  <si>
-    <t>PARTI SOCIALISTE VALLEE DE JOUX</t>
-  </si>
-  <si>
-    <t>UNION DEMOCRATIQUE DU CENTRE</t>
-  </si>
-  <si>
-    <t>LES VERT-E-S</t>
-  </si>
-  <si>
-    <t>PLR.Les Libéraux-Radicaux Vallée de Joux</t>
-  </si>
-  <si>
-    <t>Yverdon</t>
-  </si>
-  <si>
-    <t>vert'libéraux</t>
-  </si>
-  <si>
-    <t>PEV-UDF – Valeurs chrétiennes</t>
-  </si>
-  <si>
     <t>Solidarité &amp; Écologie (EàG)</t>
-  </si>
-  <si>
-    <t>EàG</t>
   </si>
   <si>
     <t>Parti Socialiste Vaudois</t>
@@ -655,7 +655,7 @@
     <col customWidth="1" min="1" max="1" width="19.14"/>
     <col customWidth="1" min="3" max="3" width="56.71"/>
     <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="5" width="17.29"/>
+    <col customWidth="1" min="5" max="6" width="24.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -765,7 +765,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -776,43 +776,43 @@
         <v>6.0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4">
         <v>1.0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>2.0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="5" t="s">
@@ -824,67 +824,67 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4">
         <v>3.0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4">
         <v>4.0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4">
         <v>5.0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4">
         <v>6.0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
@@ -896,13 +896,13 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4">
         <v>7.0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5" t="s">
@@ -914,13 +914,13 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4">
         <v>8.0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="5" t="s">
@@ -932,7 +932,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4">
         <v>1.0</v>
@@ -950,13 +950,13 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="5" t="s">
@@ -968,67 +968,67 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4">
         <v>3.0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4">
         <v>4.0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4">
         <v>5.0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4">
         <v>6.0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="5" t="s">
@@ -1040,13 +1040,13 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="4">
         <v>7.0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="5" t="s">
@@ -1058,31 +1058,31 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4">
         <v>2.0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="5" t="s">
@@ -1094,13 +1094,13 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="4">
         <v>3.0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="5" t="s">
@@ -1112,13 +1112,13 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="4">
         <v>4.0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="5" t="s">
@@ -1130,13 +1130,13 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="4">
         <v>5.0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="5" t="s">
@@ -1148,43 +1148,43 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4">
         <v>2.0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="5" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="4">
         <v>3.0</v>
@@ -1202,25 +1202,25 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="4">
         <v>4.0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="4">
         <v>5.0</v>
@@ -1238,25 +1238,25 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="4">
         <v>6.0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="4">
         <v>7.0</v>
@@ -1269,18 +1269,18 @@
         <v>20</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="4">
         <v>8.0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="5" t="s">
@@ -1292,7 +1292,7 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4">
         <v>9.0</v>
@@ -1316,14 +1316,14 @@
         <v>1.0</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1334,14 +1334,14 @@
         <v>2.0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -1352,14 +1352,14 @@
         <v>3.0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
@@ -1374,10 +1374,10 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -1410,10 +1410,10 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -1464,10 +1464,10 @@
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1518,10 +1518,10 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1536,10 +1536,10 @@
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -1568,7 +1568,7 @@
         <v>5.0</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="5" t="s">
@@ -1586,14 +1586,14 @@
         <v>6.0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -1626,10 +1626,10 @@
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
@@ -1640,14 +1640,14 @@
         <v>9.0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -1676,14 +1676,14 @@
         <v>2.0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -1698,10 +1698,10 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
@@ -1752,10 +1752,10 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -1770,10 +1770,10 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -1784,7 +1784,7 @@
         <v>8.0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="5" t="s">
@@ -1806,10 +1806,10 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -1856,14 +1856,14 @@
         <v>4.0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
@@ -1892,14 +1892,14 @@
         <v>6.0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -1910,7 +1910,7 @@
         <v>7.0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="5" t="s">
@@ -1928,7 +1928,7 @@
         <v>1.0</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="5" t="s">
@@ -1964,14 +1964,14 @@
         <v>3.0</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="74">
@@ -1982,14 +1982,14 @@
         <v>4.0</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
@@ -2004,10 +2004,10 @@
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
@@ -2022,10 +2022,10 @@
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -2072,14 +2072,14 @@
         <v>9.0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
@@ -2108,14 +2108,14 @@
         <v>2.0</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
@@ -2133,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -2162,14 +2162,14 @@
         <v>5.0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
@@ -2184,10 +2184,10 @@
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
@@ -2202,10 +2202,10 @@
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="87">
@@ -2324,14 +2324,14 @@
         <v>1.0</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -2418,10 +2418,10 @@
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
@@ -2436,10 +2436,10 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
@@ -2454,10 +2454,10 @@
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
@@ -2475,7 +2475,7 @@
         <v>20</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
@@ -2842,6 +2842,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.14"/>
+    <col customWidth="1" min="8" max="8" width="23.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2861,21 +2862,18 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2905,18 +2903,15 @@
         <v>0.0</v>
       </c>
       <c r="I2" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="K2" s="7">
         <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7">
         <v>2.0</v>
@@ -2943,15 +2938,12 @@
         <v>0.0</v>
       </c>
       <c r="J3" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="7">
         <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7">
         <v>2.0</v>
@@ -2978,9 +2970,6 @@
         <v>0.0</v>
       </c>
       <c r="J4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="7">
         <v>8.0</v>
       </c>
     </row>
@@ -3013,15 +3002,12 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="7">
         <v>17.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="8">
         <v>0.0</v>
@@ -3048,15 +3034,12 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="8">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="8">
         <v>3.0</v>
@@ -3083,9 +3066,6 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="8">
         <v>15.0</v>
       </c>
     </row>
@@ -3118,9 +3098,6 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="7">
         <v>31.0</v>
       </c>
     </row>
@@ -3153,9 +3130,6 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="8">
         <v>26.0</v>
       </c>
     </row>
@@ -3188,9 +3162,6 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="8">
         <v>5.0</v>
       </c>
     </row>
@@ -3223,9 +3194,6 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="7">
         <v>12.0</v>
       </c>
     </row>
@@ -3258,9 +3226,6 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="7">
         <v>16.0</v>
       </c>
     </row>
@@ -3290,12 +3255,9 @@
         <v>0.0</v>
       </c>
       <c r="I13" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="K13" s="7">
         <v>19.0</v>
       </c>
     </row>
@@ -3328,9 +3290,6 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K14" s="7">
         <v>14.0</v>
       </c>
     </row>
@@ -3360,12 +3319,9 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="K15" s="7">
         <v>16.0</v>
       </c>
     </row>
@@ -3398,9 +3354,6 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="8">
         <v>2.0</v>
       </c>
     </row>
@@ -3430,12 +3383,9 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="K17" s="8">
         <v>14.0</v>
       </c>
     </row>

--- a/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
+++ b/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="106">
   <si>
     <t>Wahlkreis</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Parti de Rien - Les Libres</t>
+  </si>
+  <si>
+    <t>Libres</t>
   </si>
   <si>
     <t>PLR.Les Libéraux-Radicaux</t>
@@ -333,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -360,6 +363,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <sz val="9.0"/>
@@ -377,8 +381,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9.0"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +398,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -404,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -423,13 +438,22 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
@@ -761,10 +785,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -797,10 +821,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1067,10 +1091,10 @@
         <v>42</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1211,10 +1235,10 @@
         <v>52</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1265,10 +1289,10 @@
         <v>19</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1463,10 +1487,10 @@
         <v>61</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1517,10 +1541,10 @@
         <v>65</v>
       </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1535,11 +1559,11 @@
         <v>66</v>
       </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>23</v>
+      <c r="E49" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="50">
@@ -1550,7 +1574,7 @@
         <v>4.0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="5" t="s">
@@ -1622,7 +1646,7 @@
         <v>8.0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="5" t="s">
@@ -1652,13 +1676,13 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" s="4">
         <v>1.0</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="5" t="s">
@@ -1670,7 +1694,7 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" s="4">
         <v>2.0</v>
@@ -1688,13 +1712,13 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="4">
         <v>3.0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="5" t="s">
@@ -1706,13 +1730,13 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" s="4">
         <v>4.0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="5" t="s">
@@ -1724,13 +1748,13 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" s="4">
         <v>5.0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="5" t="s">
@@ -1742,13 +1766,13 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" s="4">
         <v>6.0</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="5" t="s">
@@ -1760,13 +1784,13 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" s="4">
         <v>7.0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="5" t="s">
@@ -1778,7 +1802,7 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" s="4">
         <v>8.0</v>
@@ -1796,13 +1820,13 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" s="4">
         <v>1.0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="5" t="s">
@@ -1814,13 +1838,13 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="4">
         <v>2.0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="5" t="s">
@@ -1832,13 +1856,13 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" s="4">
         <v>3.0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="5" t="s">
@@ -1850,7 +1874,7 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" s="4">
         <v>4.0</v>
@@ -1868,13 +1892,13 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" s="4">
         <v>5.0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="5" t="s">
@@ -1886,7 +1910,7 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4">
         <v>6.0</v>
@@ -1904,7 +1928,7 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" s="4">
         <v>7.0</v>
@@ -1922,7 +1946,7 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B71" s="4">
         <v>1.0</v>
@@ -1940,7 +1964,7 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B72" s="4">
         <v>2.0</v>
@@ -1958,7 +1982,7 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B73" s="4">
         <v>3.0</v>
@@ -1976,7 +2000,7 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B74" s="4">
         <v>4.0</v>
@@ -1994,7 +2018,7 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" s="4">
         <v>5.0</v>
@@ -2012,31 +2036,31 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4">
         <v>6.0</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>23</v>
+      <c r="E76" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" s="4">
         <v>7.0</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="5" t="s">
@@ -2048,7 +2072,7 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" s="4">
         <v>8.0</v>
@@ -2066,7 +2090,7 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="4">
         <v>9.0</v>
@@ -2084,13 +2108,13 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" s="4">
         <v>1.0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="5" t="s">
@@ -2102,7 +2126,7 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" s="4">
         <v>2.0</v>
@@ -2120,31 +2144,31 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4">
         <v>3.0</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" s="4">
         <v>4.0</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="5" t="s">
@@ -2156,7 +2180,7 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="4">
         <v>5.0</v>
@@ -2174,31 +2198,31 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4">
         <v>6.0</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4">
         <v>7.0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="5" t="s">
@@ -2210,13 +2234,13 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4">
         <v>8.0</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="5" t="s">
@@ -2228,13 +2252,13 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" s="4">
         <v>9.0</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="5" t="s">
@@ -2246,13 +2270,13 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="4">
         <v>1.0</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="5" t="s">
@@ -2264,13 +2288,13 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="4">
         <v>2.0</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="5" t="s">
@@ -2282,7 +2306,7 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="4">
         <v>3.0</v>
@@ -2300,13 +2324,13 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4">
         <v>4.0</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="5" t="s">
@@ -2318,7 +2342,7 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" s="4">
         <v>1.0</v>
@@ -2336,13 +2360,13 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="4">
         <v>2.0</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="5" t="s">
@@ -2354,13 +2378,13 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4">
         <v>3.0</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="5" t="s">
@@ -2372,13 +2396,13 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4">
         <v>4.0</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="5" t="s">
@@ -2390,13 +2414,13 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B97" s="4">
         <v>5.0</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="5" t="s">
@@ -2408,13 +2432,13 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B98" s="4">
         <v>6.0</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="5" t="s">
@@ -2426,55 +2450,55 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B99" s="4">
         <v>7.0</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B100" s="4">
         <v>8.0</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>23</v>
+      <c r="E100" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B101" s="4">
         <v>9.0</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2846,546 +2870,597 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>101</v>
+      <c r="K1" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="9">
         <v>3.0</v>
       </c>
-      <c r="E2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="E2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="K2" s="9">
         <v>9.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="9">
         <v>3.0</v>
       </c>
-      <c r="E3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="E3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="9">
         <v>8.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="B4" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="9">
         <v>8.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="9">
         <v>3.0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>5.0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>7.0</v>
       </c>
-      <c r="E5" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="E5" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="9">
         <v>17.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="B6" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="10">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>3.0</v>
       </c>
-      <c r="C7" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="10">
         <v>6.0</v>
       </c>
-      <c r="E7" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="E7" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="10">
         <v>15.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="9">
         <v>3.0</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>9.0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>8.0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="9">
         <v>6.0</v>
       </c>
-      <c r="F8" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="F8" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="9">
         <v>3.0</v>
       </c>
-      <c r="I8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="I8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="9">
         <v>31.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="10">
         <v>8.0</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
         <v>6.0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="10">
         <v>5.0</v>
       </c>
-      <c r="F9" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="F9" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="10">
         <v>3.0</v>
       </c>
-      <c r="I9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="I9" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="10">
         <v>26.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="B10" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="10">
         <v>5.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="A11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="9">
         <v>5.0</v>
       </c>
-      <c r="E11" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="E11" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="9">
         <v>12.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="9">
         <v>3.0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>4.0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>5.0</v>
       </c>
-      <c r="E12" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="E12" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="9">
         <v>16.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="9">
         <v>4.0</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>4.0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>6.0</v>
       </c>
-      <c r="E13" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="E13" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="K13" s="9">
         <v>19.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="A14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="9">
         <v>4.0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>4.0</v>
       </c>
-      <c r="E14" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="E14" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="9">
         <v>14.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="A15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="C15" s="9">
         <v>3.0</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>6.0</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="9">
         <v>4.0</v>
       </c>
-      <c r="F15" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="F15" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="K15" s="9">
         <v>16.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="A16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="10">
         <v>2.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="A17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="10">
         <v>5.0</v>
       </c>
-      <c r="E17" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="E17" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="K17" s="10">
         <v>14.0</v>
       </c>
     </row>

--- a/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
+++ b/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_wahlen/Vaud_2022/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_956C5EB4242A2FA9029FA3CEA84113FF9862BE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E3F620E-9AC9-418A-B666-8876945DC95E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_956C5EB4D8E26BA8487EAA81E8CAE2263AF3BCA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E9E576C-5CC1-4CE1-A7DA-2352F964D86B}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listen_Parteien" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>La Vallée</t>
   </si>
   <si>
-    <t>PARTI EVANGELIQUE VAUD</t>
+    <t>Parti évangélique vaud</t>
   </si>
   <si>
     <t>PARTI SOCIALISTE VALLEE DE JOUX</t>
@@ -360,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -381,6 +381,7 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -391,10 +392,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -412,11 +409,6 @@
       <i/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -458,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -468,18 +460,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -702,8 +690,8 @@
   </sheetPr>
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -778,7 +766,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="0">RANDBETWEEN(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -800,7 +788,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -844,7 +832,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -866,7 +854,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -888,7 +876,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -910,7 +898,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -954,7 +942,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -976,7 +964,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -998,7 +986,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1020,7 +1008,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1064,7 +1052,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1174,7 +1162,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1218,7 +1206,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1240,7 +1228,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1262,7 +1250,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1328,7 +1316,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1372,7 +1360,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1394,7 +1382,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1416,7 +1404,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1438,7 +1426,7 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1504,7 +1492,7 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1526,7 +1514,7 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1548,7 +1536,7 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1570,7 +1558,7 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1592,7 +1580,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1636,7 +1624,7 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1658,7 +1646,7 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1680,7 +1668,7 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1702,7 +1690,7 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1724,7 +1712,7 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1746,7 +1734,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1768,7 +1756,7 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1782,15 +1770,15 @@
         <v>67</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1856,7 +1844,7 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1878,7 +1866,7 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1922,7 +1910,7 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1944,7 +1932,7 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1988,7 +1976,7 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2010,7 +1998,7 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2032,7 +2020,7 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2054,7 +2042,7 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2076,7 +2064,7 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2098,7 +2086,7 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2142,7 +2130,7 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2164,7 +2152,7 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2186,7 +2174,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="1">RANDBETWEEN(0,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2296,7 +2284,7 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2318,7 +2306,7 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2362,7 +2350,7 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2376,15 +2364,15 @@
         <v>83</v>
       </c>
       <c r="D76" s="4"/>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2428,7 +2416,7 @@
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2450,7 +2438,7 @@
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2494,7 +2482,7 @@
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2560,7 +2548,7 @@
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2582,7 +2570,7 @@
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2604,7 +2592,7 @@
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2648,7 +2636,7 @@
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2670,7 +2658,7 @@
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2714,7 +2702,7 @@
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2736,7 +2724,7 @@
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2780,7 +2768,7 @@
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2802,7 +2790,7 @@
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2846,7 +2834,7 @@
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2868,7 +2856,7 @@
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2890,7 +2878,7 @@
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2904,10 +2892,10 @@
         <v>101</v>
       </c>
       <c r="D100" s="4"/>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G100">
@@ -3306,597 +3294,597 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>1</v>
-      </c>
-      <c r="K2" s="10">
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>5</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>7</v>
       </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
         <v>6</v>
       </c>
-      <c r="E7" s="11">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>9</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>8</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>6</v>
       </c>
-      <c r="F8" s="10">
-        <v>2</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="F8" s="9">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
         <v>3</v>
       </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="11">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>6</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>5</v>
       </c>
-      <c r="F9" s="11">
-        <v>2</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
         <v>3</v>
       </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="10">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
         <v>5</v>
       </c>
-      <c r="E11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>5</v>
       </c>
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>2</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10">
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>4</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>6</v>
       </c>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
         <v>4</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>4</v>
       </c>
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="10">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
         <v>3</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>6</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>4</v>
       </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10">
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="11">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="11">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10">
         <v>5</v>
       </c>
-      <c r="E17" s="11">
-        <v>2</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>1</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="E17" s="10">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
         <v>14</v>
       </c>
     </row>

--- a/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
+++ b/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_wahlen/Vaud_2022/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_956C5EB4D8E26BA8487EAA81E8CAE2263AF3BCA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E9E576C-5CC1-4CE1-A7DA-2352F964D86B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_956C5EB4D8E26BA8485EAC81CCEAE8263AF3BCA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86961135-3D96-43DC-B543-17DE22732A44}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,8 +690,8 @@
   </sheetPr>
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -766,7 +766,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="0">RANDBETWEEN(0,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -788,7 +788,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -876,7 +876,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -920,7 +920,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -942,7 +942,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="1">RANDBETWEEN(0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -3511,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="10">
         <v>6</v>
@@ -3797,7 +3797,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="10">
         <v>5</v>

--- a/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
+++ b/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_wahlen/Vaud_2022/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_956C5EB4D8E26BA8485EAC81CCEAE8263AF3BCA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86961135-3D96-43DC-B543-17DE22732A44}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_956C5EB4D8E26BA8485EAC81CCEAE8263AF3BCA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9547378E-90F3-41BB-9435-9BE031A3E4FD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listen_Parteien" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
   <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G101"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -742,10 +742,6 @@
       <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <f ca="1">RANDBETWEEN(0,2)</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -764,10 +760,6 @@
       <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" ca="1" si="0">RANDBETWEEN(0,2)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -786,10 +778,6 @@
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -808,10 +796,6 @@
       <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -830,10 +814,6 @@
       <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -852,10 +832,6 @@
       <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -874,10 +850,6 @@
       <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -896,10 +868,6 @@
       <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -918,10 +886,6 @@
       <c r="F10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -940,10 +904,6 @@
       <c r="F11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -962,10 +922,6 @@
       <c r="F12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -984,10 +940,6 @@
       <c r="F13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1006,10 +958,6 @@
       <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1028,10 +976,6 @@
       <c r="F15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1050,12 +994,8 @@
       <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -1072,12 +1012,8 @@
       <c r="F17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1094,12 +1030,8 @@
       <c r="F18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -1116,12 +1048,8 @@
       <c r="F19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -1138,12 +1066,8 @@
       <c r="F20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
@@ -1160,12 +1084,8 @@
       <c r="F21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -1182,12 +1102,8 @@
       <c r="F22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
@@ -1204,12 +1120,8 @@
       <c r="F23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -1226,12 +1138,8 @@
       <c r="F24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
@@ -1248,12 +1156,8 @@
       <c r="F25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -1270,12 +1174,8 @@
       <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -1292,12 +1192,8 @@
       <c r="F27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>48</v>
       </c>
@@ -1314,12 +1210,8 @@
       <c r="F28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -1336,12 +1228,8 @@
       <c r="F29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G29">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>48</v>
       </c>
@@ -1358,12 +1246,8 @@
       <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>48</v>
       </c>
@@ -1380,12 +1264,8 @@
       <c r="F31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>48</v>
       </c>
@@ -1402,12 +1282,8 @@
       <c r="F32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>48</v>
       </c>
@@ -1424,12 +1300,8 @@
       <c r="F33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>48</v>
       </c>
@@ -1446,12 +1318,8 @@
       <c r="F34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G34">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
@@ -1468,12 +1336,8 @@
       <c r="F35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -1490,12 +1354,8 @@
       <c r="F36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>56</v>
       </c>
@@ -1512,12 +1372,8 @@
       <c r="F37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>56</v>
       </c>
@@ -1534,12 +1390,8 @@
       <c r="F38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>56</v>
       </c>
@@ -1556,12 +1408,8 @@
       <c r="F39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>56</v>
       </c>
@@ -1578,12 +1426,8 @@
       <c r="F40" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G40">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>56</v>
       </c>
@@ -1600,12 +1444,8 @@
       <c r="F41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G41">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>56</v>
       </c>
@@ -1622,12 +1462,8 @@
       <c r="F42" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>56</v>
       </c>
@@ -1644,12 +1480,8 @@
       <c r="F43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G43">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>56</v>
       </c>
@@ -1666,12 +1498,8 @@
       <c r="F44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G44">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>56</v>
       </c>
@@ -1688,12 +1516,8 @@
       <c r="F45" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G45">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>56</v>
       </c>
@@ -1710,12 +1534,8 @@
       <c r="F46" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>64</v>
       </c>
@@ -1732,12 +1552,8 @@
       <c r="F47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>64</v>
       </c>
@@ -1754,12 +1570,8 @@
       <c r="F48" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>64</v>
       </c>
@@ -1776,12 +1588,8 @@
       <c r="F49" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G49">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>64</v>
       </c>
@@ -1798,12 +1606,8 @@
       <c r="F50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G50">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>64</v>
       </c>
@@ -1820,12 +1624,8 @@
       <c r="F51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G51">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>64</v>
       </c>
@@ -1842,12 +1642,8 @@
       <c r="F52" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G52">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>64</v>
       </c>
@@ -1864,12 +1660,8 @@
       <c r="F53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G53">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>64</v>
       </c>
@@ -1886,12 +1678,8 @@
       <c r="F54" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>64</v>
       </c>
@@ -1908,12 +1696,8 @@
       <c r="F55" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G55">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>71</v>
       </c>
@@ -1930,12 +1714,8 @@
       <c r="F56" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G56">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>71</v>
       </c>
@@ -1952,12 +1732,8 @@
       <c r="F57" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>71</v>
       </c>
@@ -1974,12 +1750,8 @@
       <c r="F58" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G58">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>71</v>
       </c>
@@ -1996,12 +1768,8 @@
       <c r="F59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G59">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>71</v>
       </c>
@@ -2018,12 +1786,8 @@
       <c r="F60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G60">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>71</v>
       </c>
@@ -2040,12 +1804,8 @@
       <c r="F61" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G61">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>71</v>
       </c>
@@ -2062,12 +1822,8 @@
       <c r="F62" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
@@ -2084,12 +1840,8 @@
       <c r="F63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G63">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>78</v>
       </c>
@@ -2106,12 +1858,8 @@
       <c r="F64" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G64">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>78</v>
       </c>
@@ -2128,12 +1876,8 @@
       <c r="F65" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G65">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>78</v>
       </c>
@@ -2150,12 +1894,8 @@
       <c r="F66" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G66">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>78</v>
       </c>
@@ -2172,12 +1912,8 @@
       <c r="F67" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G101" ca="1" si="1">RANDBETWEEN(0,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>78</v>
       </c>
@@ -2194,12 +1930,8 @@
       <c r="F68" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G68">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>78</v>
       </c>
@@ -2216,12 +1948,8 @@
       <c r="F69" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G69">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>78</v>
       </c>
@@ -2238,12 +1966,8 @@
       <c r="F70" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G70">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>82</v>
       </c>
@@ -2260,12 +1984,8 @@
       <c r="F71" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G71">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>82</v>
       </c>
@@ -2282,12 +2002,8 @@
       <c r="F72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G72">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>82</v>
       </c>
@@ -2304,12 +2020,8 @@
       <c r="F73" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G73">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>82</v>
       </c>
@@ -2326,12 +2038,8 @@
       <c r="F74" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G74">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>82</v>
       </c>
@@ -2348,12 +2056,8 @@
       <c r="F75" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G75">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
@@ -2370,12 +2074,8 @@
       <c r="F76" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G76">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>82</v>
       </c>
@@ -2392,12 +2092,8 @@
       <c r="F77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G77">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>82</v>
       </c>
@@ -2414,12 +2110,8 @@
       <c r="F78" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G78">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>82</v>
       </c>
@@ -2436,12 +2128,8 @@
       <c r="F79" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G79">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>85</v>
       </c>
@@ -2458,12 +2146,8 @@
       <c r="F80" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G80">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>85</v>
       </c>
@@ -2480,12 +2164,8 @@
       <c r="F81" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G81">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>85</v>
       </c>
@@ -2502,12 +2182,8 @@
       <c r="F82" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G82">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>85</v>
       </c>
@@ -2524,12 +2200,8 @@
       <c r="F83" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G83">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>85</v>
       </c>
@@ -2546,12 +2218,8 @@
       <c r="F84" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G84">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
@@ -2568,12 +2236,8 @@
       <c r="F85" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G85">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
@@ -2590,12 +2254,8 @@
       <c r="F86" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G86">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
@@ -2612,12 +2272,8 @@
       <c r="F87" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G87">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>85</v>
       </c>
@@ -2634,12 +2290,8 @@
       <c r="F88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G88">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>92</v>
       </c>
@@ -2656,12 +2308,8 @@
       <c r="F89" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G89">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>92</v>
       </c>
@@ -2678,12 +2326,8 @@
       <c r="F90" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G90">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>92</v>
       </c>
@@ -2700,12 +2344,8 @@
       <c r="F91" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G91">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>92</v>
       </c>
@@ -2722,12 +2362,8 @@
       <c r="F92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G92">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>95</v>
       </c>
@@ -2744,12 +2380,8 @@
       <c r="F93" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G93">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>95</v>
       </c>
@@ -2766,12 +2398,8 @@
       <c r="F94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G94">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>95</v>
       </c>
@@ -2788,12 +2416,8 @@
       <c r="F95" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G95">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
@@ -2810,12 +2434,8 @@
       <c r="F96" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G96">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
@@ -2832,12 +2452,8 @@
       <c r="F97" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G97">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>95</v>
       </c>
@@ -2854,12 +2470,8 @@
       <c r="F98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G98">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>95</v>
       </c>
@@ -2876,12 +2488,8 @@
       <c r="F99" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G99">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>95</v>
       </c>
@@ -2898,12 +2506,8 @@
       <c r="F100" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G100">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>95</v>
       </c>
@@ -2920,72 +2524,68 @@
       <c r="F101" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G101">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="4"/>

--- a/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
+++ b/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_wahlen/Vaud_2022/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_956C5EB4D8E26BA8485EAC81CCEAE8263AF3BCA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD9316F0-D250-478A-B168-651124831C52}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_956C5EB4D8E26BA8485EAC81CCEAE8263AF3BCA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5058B018-9119-4CA4-A63A-BDB5A7FC937B}"/>
   <bookViews>
-    <workbookView xWindow="21744" yWindow="2292" windowWidth="23256" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listen_Parteien" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
   </sheetPr>
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2872,7 +2872,9 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2947,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">

--- a/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
+++ b/Vaud_2022/Daten/LENA_Listen_Kanton_Vaud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_wahlen/Vaud_2022/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_956C5EB4D8E26BA8485EAC81CCEAE8263AF3BCA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5058B018-9119-4CA4-A63A-BDB5A7FC937B}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_956C5EB4D8E26BA8485EAC81CCEAE8263AF3BCA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70599896-5E69-4B78-942D-F50CF02B5241}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2873,7 +2873,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
